--- a/RCode/2022-10-26ABBAind.xlsx
+++ b/RCode/2022-10-26ABBAind.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="235">
   <si>
     <t>num.1</t>
   </si>
@@ -149,61 +149,61 @@
     <t>MLE.closeform</t>
   </si>
   <si>
-    <t>0.99199</t>
+    <t>0.98992</t>
   </si>
   <si>
     <t>I.hat.ind</t>
   </si>
   <si>
-    <t>10.636</t>
-  </si>
-  <si>
-    <t>7.0359</t>
-  </si>
-  <si>
-    <t>5.9312</t>
-  </si>
-  <si>
-    <t>5.5886</t>
+    <t>10.632</t>
+  </si>
+  <si>
+    <t>7.039</t>
+  </si>
+  <si>
+    <t>5.9326</t>
+  </si>
+  <si>
+    <t>5.58</t>
   </si>
   <si>
     <t>V.hat.ind</t>
   </si>
   <si>
-    <t>10.306</t>
-  </si>
-  <si>
-    <t>6.8473</t>
-  </si>
-  <si>
-    <t>5.7455</t>
-  </si>
-  <si>
-    <t>5.4204</t>
+    <t>10.188</t>
+  </si>
+  <si>
+    <t>6.7417</t>
+  </si>
+  <si>
+    <t>5.6721</t>
+  </si>
+  <si>
+    <t>5.3368</t>
   </si>
   <si>
     <t>NS.MLE.closeform.ind</t>
   </si>
   <si>
-    <t>0.7157</t>
-  </si>
-  <si>
-    <t>-0.35484</t>
-  </si>
-  <si>
-    <t>-0.35169</t>
-  </si>
-  <si>
-    <t>-0.35269</t>
+    <t>0.77247</t>
+  </si>
+  <si>
+    <t>-0.39461</t>
+  </si>
+  <si>
+    <t>-0.37641</t>
+  </si>
+  <si>
+    <t>-0.38438</t>
   </si>
   <si>
     <t>inv(I.hat.ind)</t>
   </si>
   <si>
-    <t>0.74703</t>
-  </si>
-  <si>
-    <t>-0.37352</t>
+    <t>0.74903</t>
+  </si>
+  <si>
+    <t>-0.37452</t>
   </si>
   <si>
     <t>eta_hat</t>
@@ -212,514 +212,511 @@
     <t/>
   </si>
   <si>
-    <t>0.70299</t>
-  </si>
-  <si>
-    <t>3.6892</t>
-  </si>
-  <si>
-    <t>3.3467</t>
-  </si>
-  <si>
-    <t>6.8378</t>
-  </si>
-  <si>
-    <t>3.6081</t>
-  </si>
-  <si>
-    <t>3.2462</t>
-  </si>
-  <si>
-    <t>0.44608</t>
-  </si>
-  <si>
-    <t>0.049219</t>
-  </si>
-  <si>
-    <t>0.063701</t>
-  </si>
-  <si>
-    <t>0.44258</t>
-  </si>
-  <si>
-    <t>0.067214</t>
-  </si>
-  <si>
-    <t>0.081244</t>
+    <t>0.70557</t>
+  </si>
+  <si>
+    <t>3.6958</t>
+  </si>
+  <si>
+    <t>3.3432</t>
+  </si>
+  <si>
+    <t>6.7687</t>
+  </si>
+  <si>
+    <t>3.5261</t>
+  </si>
+  <si>
+    <t>3.1925</t>
+  </si>
+  <si>
+    <t>0.45678</t>
+  </si>
+  <si>
+    <t>0.076471</t>
+  </si>
+  <si>
+    <t>0.085768</t>
+  </si>
+  <si>
+    <t>0.44328</t>
+  </si>
+  <si>
+    <t>0.067274</t>
+  </si>
+  <si>
+    <t>0.081677</t>
   </si>
   <si>
     <t>gamma_hat</t>
   </si>
   <si>
-    <t>0.30085</t>
-  </si>
-  <si>
-    <t>2.242</t>
-  </si>
-  <si>
-    <t>5.7302</t>
-  </si>
-  <si>
-    <t>2.1633</t>
-  </si>
-  <si>
-    <t>0.42762</t>
-  </si>
-  <si>
-    <t>0.14672</t>
-  </si>
-  <si>
-    <t>0.156</t>
+    <t>0.30211</t>
+  </si>
+  <si>
+    <t>2.2368</t>
+  </si>
+  <si>
+    <t>5.6747</t>
+  </si>
+  <si>
+    <t>2.1202</t>
+  </si>
+  <si>
+    <t>0.43431</t>
+  </si>
+  <si>
+    <t>0.15851</t>
+  </si>
+  <si>
+    <t>0.15681</t>
   </si>
   <si>
     <t>delta_hat</t>
   </si>
   <si>
-    <t>0.20313</t>
-  </si>
-  <si>
-    <t>5.4176</t>
-  </si>
-  <si>
-    <t>0.42753</t>
-  </si>
-  <si>
-    <t>0.99341</t>
-  </si>
-  <si>
-    <t>7.0355</t>
-  </si>
-  <si>
-    <t>5.938</t>
-  </si>
-  <si>
-    <t>5.587</t>
-  </si>
-  <si>
-    <t>10.462</t>
-  </si>
-  <si>
-    <t>6.9209</t>
-  </si>
-  <si>
-    <t>5.8545</t>
-  </si>
-  <si>
-    <t>5.5028</t>
-  </si>
-  <si>
-    <t>0.75079</t>
-  </si>
-  <si>
-    <t>-0.36848</t>
-  </si>
-  <si>
-    <t>-0.37583</t>
-  </si>
-  <si>
-    <t>-0.37456</t>
-  </si>
-  <si>
-    <t>0.74342</t>
-  </si>
-  <si>
-    <t>-0.37171</t>
-  </si>
-  <si>
-    <t>0.70184</t>
-  </si>
-  <si>
-    <t>3.6933</t>
+    <t>0.20166</t>
+  </si>
+  <si>
+    <t>5.3506</t>
+  </si>
+  <si>
+    <t>0.45082</t>
+  </si>
+  <si>
+    <t>0.99458</t>
+  </si>
+  <si>
+    <t>7.0321</t>
+  </si>
+  <si>
+    <t>5.9328</t>
+  </si>
+  <si>
+    <t>5.5862</t>
+  </si>
+  <si>
+    <t>10.395</t>
+  </si>
+  <si>
+    <t>6.8666</t>
+  </si>
+  <si>
+    <t>5.8032</t>
+  </si>
+  <si>
+    <t>5.4543</t>
+  </si>
+  <si>
+    <t>0.75937</t>
+  </si>
+  <si>
+    <t>-0.38447</t>
+  </si>
+  <si>
+    <t>-0.36947</t>
+  </si>
+  <si>
+    <t>-0.381</t>
+  </si>
+  <si>
+    <t>0.74259</t>
+  </si>
+  <si>
+    <t>-0.37129</t>
+  </si>
+  <si>
+    <t>0.70106</t>
+  </si>
+  <si>
+    <t>3.6893</t>
+  </si>
+  <si>
+    <t>3.3427</t>
+  </si>
+  <si>
+    <t>6.8766</t>
+  </si>
+  <si>
+    <t>3.6112</t>
+  </si>
+  <si>
+    <t>3.2533</t>
+  </si>
+  <si>
+    <t>0.45904</t>
+  </si>
+  <si>
+    <t>0.065647</t>
+  </si>
+  <si>
+    <t>0.086084</t>
+  </si>
+  <si>
+    <t>0.44055</t>
+  </si>
+  <si>
+    <t>0.066647</t>
+  </si>
+  <si>
+    <t>0.080769</t>
+  </si>
+  <si>
+    <t>0.30155</t>
+  </si>
+  <si>
+    <t>2.2435</t>
+  </si>
+  <si>
+    <t>5.8073</t>
+  </si>
+  <si>
+    <t>2.1878</t>
+  </si>
+  <si>
+    <t>0.43995</t>
+  </si>
+  <si>
+    <t>0.15516</t>
+  </si>
+  <si>
+    <t>0.15462</t>
+  </si>
+  <si>
+    <t>0.20279</t>
+  </si>
+  <si>
+    <t>5.4649</t>
+  </si>
+  <si>
+    <t>0.44241</t>
+  </si>
+  <si>
+    <t>0.99684</t>
+  </si>
+  <si>
+    <t>7.0366</t>
+  </si>
+  <si>
+    <t>5.9324</t>
+  </si>
+  <si>
+    <t>5.5803</t>
+  </si>
+  <si>
+    <t>10.519</t>
+  </si>
+  <si>
+    <t>6.9597</t>
+  </si>
+  <si>
+    <t>5.8744</t>
+  </si>
+  <si>
+    <t>5.526</t>
+  </si>
+  <si>
+    <t>0.74678</t>
+  </si>
+  <si>
+    <t>-0.37515</t>
+  </si>
+  <si>
+    <t>-0.37046</t>
+  </si>
+  <si>
+    <t>-0.3771</t>
+  </si>
+  <si>
+    <t>0.73947</t>
+  </si>
+  <si>
+    <t>-0.36974</t>
+  </si>
+  <si>
+    <t>0.70193</t>
+  </si>
+  <si>
+    <t>3.6944</t>
+  </si>
+  <si>
+    <t>3.3422</t>
+  </si>
+  <si>
+    <t>6.9638</t>
+  </si>
+  <si>
+    <t>3.6518</t>
+  </si>
+  <si>
+    <t>3.3134</t>
+  </si>
+  <si>
+    <t>0.43432</t>
+  </si>
+  <si>
+    <t>0.072548</t>
+  </si>
+  <si>
+    <t>0.083126</t>
+  </si>
+  <si>
+    <t>0.43949</t>
+  </si>
+  <si>
+    <t>0.065764</t>
+  </si>
+  <si>
+    <t>0.080061</t>
+  </si>
+  <si>
+    <t>0.30052</t>
+  </si>
+  <si>
+    <t>2.2381</t>
+  </si>
+  <si>
+    <t>5.873</t>
+  </si>
+  <si>
+    <t>2.2216</t>
+  </si>
+  <si>
+    <t>0.4341</t>
+  </si>
+  <si>
+    <t>0.15806</t>
+  </si>
+  <si>
+    <t>0.15415</t>
+  </si>
+  <si>
+    <t>0.20029</t>
+  </si>
+  <si>
+    <t>5.5295</t>
+  </si>
+  <si>
+    <t>0.44965</t>
+  </si>
+  <si>
+    <t>0.99871</t>
+  </si>
+  <si>
+    <t>10.635</t>
+  </si>
+  <si>
+    <t>7.0349</t>
+  </si>
+  <si>
+    <t>5.9349</t>
+  </si>
+  <si>
+    <t>5.5837</t>
+  </si>
+  <si>
+    <t>10.588</t>
+  </si>
+  <si>
+    <t>6.9931</t>
+  </si>
+  <si>
+    <t>5.9019</t>
+  </si>
+  <si>
+    <t>5.5625</t>
+  </si>
+  <si>
+    <t>0.72852</t>
+  </si>
+  <si>
+    <t>-0.37255</t>
+  </si>
+  <si>
+    <t>-0.35302</t>
+  </si>
+  <si>
+    <t>-0.35927</t>
+  </si>
+  <si>
+    <t>0.73738</t>
+  </si>
+  <si>
+    <t>-0.36869</t>
+  </si>
+  <si>
+    <t>0.69997</t>
+  </si>
+  <si>
+    <t>3.693</t>
+  </si>
+  <si>
+    <t>3.3418</t>
+  </si>
+  <si>
+    <t>6.9912</t>
+  </si>
+  <si>
+    <t>3.663</t>
+  </si>
+  <si>
+    <t>3.3238</t>
+  </si>
+  <si>
+    <t>0.44315</t>
+  </si>
+  <si>
+    <t>0.062054</t>
+  </si>
+  <si>
+    <t>0.080308</t>
+  </si>
+  <si>
+    <t>0.43859</t>
+  </si>
+  <si>
+    <t>0.065581</t>
+  </si>
+  <si>
+    <t>0.079832</t>
+  </si>
+  <si>
+    <t>0.30058</t>
+  </si>
+  <si>
+    <t>2.2419</t>
+  </si>
+  <si>
+    <t>5.9025</t>
+  </si>
+  <si>
+    <t>2.2329</t>
+  </si>
+  <si>
+    <t>0.41876</t>
+  </si>
+  <si>
+    <t>0.14258</t>
+  </si>
+  <si>
+    <t>0.15338</t>
+  </si>
+  <si>
+    <t>0.20061</t>
+  </si>
+  <si>
+    <t>5.5584</t>
+  </si>
+  <si>
+    <t>0.43505</t>
+  </si>
+  <si>
+    <t>0.99913</t>
+  </si>
+  <si>
+    <t>10.638</t>
+  </si>
+  <si>
+    <t>7.0386</t>
+  </si>
+  <si>
+    <t>5.9371</t>
+  </si>
+  <si>
+    <t>5.583</t>
+  </si>
+  <si>
+    <t>10.604</t>
+  </si>
+  <si>
+    <t>7.0173</t>
+  </si>
+  <si>
+    <t>5.9073</t>
+  </si>
+  <si>
+    <t>5.5639</t>
+  </si>
+  <si>
+    <t>0.73974</t>
+  </si>
+  <si>
+    <t>-0.3595</t>
+  </si>
+  <si>
+    <t>-0.37136</t>
+  </si>
+  <si>
+    <t>-0.37292</t>
+  </si>
+  <si>
+    <t>0.73685</t>
+  </si>
+  <si>
+    <t>-0.36843</t>
+  </si>
+  <si>
+    <t>0.70056</t>
+  </si>
+  <si>
+    <t>3.6964</t>
   </si>
   <si>
     <t>3.3423</t>
   </si>
   <si>
-    <t>6.9052</t>
-  </si>
-  <si>
-    <t>3.6547</t>
-  </si>
-  <si>
-    <t>3.2884</t>
-  </si>
-  <si>
-    <t>0.43201</t>
-  </si>
-  <si>
-    <t>0.069645</t>
-  </si>
-  <si>
-    <t>0.077936</t>
-  </si>
-  <si>
-    <t>0.44061</t>
-  </si>
-  <si>
-    <t>0.066846</t>
-  </si>
-  <si>
-    <t>0.081136</t>
-  </si>
-  <si>
-    <t>0.30305</t>
-  </si>
-  <si>
-    <t>2.2448</t>
-  </si>
-  <si>
-    <t>5.8267</t>
-  </si>
-  <si>
-    <t>2.2245</t>
-  </si>
-  <si>
-    <t>0.43755</t>
-  </si>
-  <si>
-    <t>0.15701</t>
-  </si>
-  <si>
-    <t>0.15483</t>
-  </si>
-  <si>
-    <t>0.20308</t>
-  </si>
-  <si>
-    <t>5.4993</t>
-  </si>
-  <si>
-    <t>0.44138</t>
-  </si>
-  <si>
-    <t>0.99676</t>
-  </si>
-  <si>
-    <t>10.637</t>
-  </si>
-  <si>
-    <t>7.0403</t>
-  </si>
-  <si>
-    <t>5.5822</t>
-  </si>
-  <si>
-    <t>10.563</t>
-  </si>
-  <si>
-    <t>6.9764</t>
-  </si>
-  <si>
-    <t>5.9076</t>
-  </si>
-  <si>
-    <t>5.5404</t>
-  </si>
-  <si>
-    <t>0.73138</t>
-  </si>
-  <si>
-    <t>-0.34228</t>
-  </si>
-  <si>
-    <t>-0.39199</t>
-  </si>
-  <si>
-    <t>-0.3629</t>
-  </si>
-  <si>
-    <t>0.7395</t>
-  </si>
-  <si>
-    <t>-0.36975</t>
-  </si>
-  <si>
-    <t>0.70201</t>
-  </si>
-  <si>
-    <t>3.698</t>
-  </si>
-  <si>
-    <t>3.3422</t>
-  </si>
-  <si>
-    <t>6.9617</t>
-  </si>
-  <si>
-    <t>3.6756</t>
-  </si>
-  <si>
-    <t>3.3097</t>
-  </si>
-  <si>
-    <t>0.41181</t>
-  </si>
-  <si>
-    <t>0.066121</t>
-  </si>
-  <si>
-    <t>0.068628</t>
-  </si>
-  <si>
-    <t>0.43934</t>
-  </si>
-  <si>
-    <t>0.065799</t>
-  </si>
-  <si>
-    <t>0.080238</t>
-  </si>
-  <si>
-    <t>0.3015</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>5.9051</t>
-  </si>
-  <si>
-    <t>2.227</t>
-  </si>
-  <si>
-    <t>0.46237</t>
-  </si>
-  <si>
-    <t>0.16274</t>
-  </si>
-  <si>
-    <t>0.15412</t>
-  </si>
-  <si>
-    <t>0.20025</t>
-  </si>
-  <si>
-    <t>5.5371</t>
-  </si>
-  <si>
-    <t>0.43598</t>
-  </si>
-  <si>
-    <t>0.99752</t>
-  </si>
-  <si>
-    <t>10.635</t>
-  </si>
-  <si>
-    <t>7.0373</t>
-  </si>
-  <si>
-    <t>5.9355</t>
-  </si>
-  <si>
-    <t>5.5841</t>
-  </si>
-  <si>
-    <t>10.583</t>
-  </si>
-  <si>
-    <t>7.0035</t>
-  </si>
-  <si>
-    <t>5.9043</t>
-  </si>
-  <si>
-    <t>5.5445</t>
-  </si>
-  <si>
-    <t>0.74226</t>
-  </si>
-  <si>
-    <t>-0.36122</t>
-  </si>
-  <si>
-    <t>-0.36578</t>
-  </si>
-  <si>
-    <t>-0.38135</t>
-  </si>
-  <si>
-    <t>0.73827</t>
-  </si>
-  <si>
-    <t>-0.36914</t>
-  </si>
-  <si>
-    <t>0.70104</t>
-  </si>
-  <si>
-    <t>3.6943</t>
-  </si>
-  <si>
-    <t>3.3429</t>
-  </si>
-  <si>
-    <t>7.0051</t>
-  </si>
-  <si>
-    <t>3.6774</t>
-  </si>
-  <si>
-    <t>3.3184</t>
-  </si>
-  <si>
-    <t>0.43026</t>
-  </si>
-  <si>
-    <t>0.06088</t>
-  </si>
-  <si>
-    <t>0.084393</t>
-  </si>
-  <si>
-    <t>0.4388</t>
-  </si>
-  <si>
-    <t>0.065774</t>
-  </si>
-  <si>
-    <t>0.080023</t>
-  </si>
-  <si>
-    <t>0.30104</t>
-  </si>
-  <si>
-    <t>2.2412</t>
-  </si>
-  <si>
-    <t>5.9057</t>
-  </si>
-  <si>
-    <t>2.2187</t>
-  </si>
-  <si>
-    <t>0.4338</t>
-  </si>
-  <si>
-    <t>0.15098</t>
-  </si>
-  <si>
-    <t>0.15368</t>
-  </si>
-  <si>
-    <t>0.20105</t>
-  </si>
-  <si>
-    <t>5.5457</t>
-  </si>
-  <si>
-    <t>0.45403</t>
-  </si>
-  <si>
-    <t>0.99838</t>
-  </si>
-  <si>
-    <t>10.638</t>
-  </si>
-  <si>
-    <t>7.0395</t>
-  </si>
-  <si>
-    <t>5.9364</t>
-  </si>
-  <si>
-    <t>5.5838</t>
-  </si>
-  <si>
-    <t>10.613</t>
-  </si>
-  <si>
-    <t>7.0207</t>
-  </si>
-  <si>
-    <t>5.9187</t>
-  </si>
-  <si>
-    <t>5.5644</t>
-  </si>
-  <si>
-    <t>0.72936</t>
-  </si>
-  <si>
-    <t>-0.36214</t>
-  </si>
-  <si>
-    <t>-0.36666</t>
-  </si>
-  <si>
-    <t>-0.3515</t>
-  </si>
-  <si>
-    <t>0.7374</t>
-  </si>
-  <si>
-    <t>-0.3687</t>
-  </si>
-  <si>
-    <t>0.70113</t>
-  </si>
-  <si>
-    <t>3.6961</t>
-  </si>
-  <si>
-    <t>3.3434</t>
-  </si>
-  <si>
-    <t>7.0143</t>
-  </si>
-  <si>
-    <t>3.6865</t>
-  </si>
-  <si>
-    <t>3.3278</t>
-  </si>
-  <si>
-    <t>0.44204</t>
-  </si>
-  <si>
-    <t>0.063253</t>
-  </si>
-  <si>
-    <t>0.071524</t>
-  </si>
-  <si>
-    <t>0.43851</t>
-  </si>
-  <si>
-    <t>0.065537</t>
-  </si>
-  <si>
-    <t>0.079817</t>
-  </si>
-  <si>
-    <t>0.30066</t>
-  </si>
-  <si>
-    <t>2.2404</t>
-  </si>
-  <si>
-    <t>5.918</t>
-  </si>
-  <si>
-    <t>2.2328</t>
-  </si>
-  <si>
-    <t>0.44573</t>
-  </si>
-  <si>
-    <t>0.14634</t>
-  </si>
-  <si>
-    <t>0.15354</t>
-  </si>
-  <si>
-    <t>0.20037</t>
-  </si>
-  <si>
-    <t>5.5639</t>
-  </si>
-  <si>
-    <t>0.42214</t>
+    <t>7.0179</t>
+  </si>
+  <si>
+    <t>3.6786</t>
+  </si>
+  <si>
+    <t>3.3312</t>
+  </si>
+  <si>
+    <t>0.43197</t>
+  </si>
+  <si>
+    <t>0.063654</t>
+  </si>
+  <si>
+    <t>0.07879</t>
+  </si>
+  <si>
+    <t>0.43837</t>
+  </si>
+  <si>
+    <t>0.065389</t>
+  </si>
+  <si>
+    <t>0.079732</t>
+  </si>
+  <si>
+    <t>2.2407</t>
+  </si>
+  <si>
+    <t>5.9005</t>
+  </si>
+  <si>
+    <t>2.2269</t>
+  </si>
+  <si>
+    <t>0.43774</t>
+  </si>
+  <si>
+    <t>0.15769</t>
+  </si>
+  <si>
+    <t>0.15337</t>
+  </si>
+  <si>
+    <t>0.19986</t>
+  </si>
+  <si>
+    <t>5.5638</t>
+  </si>
+  <si>
+    <t>0.43332</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1019,10 @@
         <v>214</v>
       </c>
       <c r="T4" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="U4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -1122,13 +1119,13 @@
         <v>93</v>
       </c>
       <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
         <v>127</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>128</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
       </c>
       <c r="M6" t="s">
         <v>129</v>
@@ -1187,10 +1184,10 @@
         <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" t="s">
         <v>141</v>
@@ -1252,13 +1249,13 @@
         <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
         <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s">
         <v>153</v>
@@ -1285,7 +1282,7 @@
         <v>202</v>
       </c>
       <c r="U8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
@@ -1347,7 +1344,7 @@
         <v>216</v>
       </c>
       <c r="T9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U9" t="s">
         <v>203</v>
@@ -1607,10 +1604,10 @@
         <v>218</v>
       </c>
       <c r="T13" t="s">
+        <v>227</v>
+      </c>
+      <c r="U13" t="s">
         <v>228</v>
-      </c>
-      <c r="U13" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14">
@@ -1672,10 +1669,10 @@
         <v>219</v>
       </c>
       <c r="T14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
@@ -1932,10 +1929,10 @@
         <v>221</v>
       </c>
       <c r="T18" t="s">
+        <v>229</v>
+      </c>
+      <c r="U18" t="s">
         <v>230</v>
-      </c>
-      <c r="U18" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="19">
@@ -1997,10 +1994,10 @@
         <v>222</v>
       </c>
       <c r="T19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20">
@@ -2260,7 +2257,7 @@
         <v>223</v>
       </c>
       <c r="U23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -2322,7 +2319,7 @@
         <v>225</v>
       </c>
       <c r="T24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U24" t="s">
         <v>223</v>
